--- a/EL - Electrical/Autre/Commandes_modifPTN.xlsx
+++ b/EL - Electrical/Autre/Commandes_modifPTN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telep\Documents\STUF2019\EL - Electrical\Autre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36462ECF-557A-4963-91DA-ED0C0D2912DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F43337A-90CF-489C-85C9-2F3171C6A757}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,12 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="263">
   <si>
     <t>Système</t>
   </si>
@@ -855,6 +855,27 @@
   <si>
     <t>prevenu</t>
   </si>
+  <si>
+    <t>Commande</t>
+  </si>
+  <si>
+    <t>Condensateur céramique multicouche CMS 10µF</t>
+  </si>
+  <si>
+    <t>Connecteur molex KK femelle 3</t>
+  </si>
+  <si>
+    <t>Prolongateur, Série SOLISTRAND, 26 AWG, 22 AWG</t>
+  </si>
+  <si>
+    <t>Carte SD 8 Gb</t>
+  </si>
+  <si>
+    <t>Flux de soudure, Hydrosoluble, Soudage, Flacon, 50 ml</t>
+  </si>
+  <si>
+    <t>Diode de redressement</t>
+  </si>
 </sst>
 </file>
 
@@ -865,7 +886,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[Red]\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="166" formatCode="#,##0.00&quot; €&quot;;[Red]\-#,##0.00&quot; €&quot;"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1011,8 +1032,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF454545"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,8 +1161,38 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="46">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1683,13 +1773,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1805,9 +1964,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1996,6 +2152,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2020,11 +2181,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Insatisfaisant" xfId="1" builtinId="27"/>
@@ -2428,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,27 +2716,27 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="L1" s="60" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="142" t="s">
+      <c r="M1" s="133" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="142" t="s">
+      <c r="N1" s="133" t="s">
         <v>254</v>
       </c>
-      <c r="O1" s="142" t="s">
+      <c r="O1" s="133" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="92" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -2535,11 +2771,11 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="134"/>
-      <c r="B3" s="94" t="s">
+      <c r="A3" s="136"/>
+      <c r="B3" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="86" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="14" t="s">
@@ -2569,8 +2805,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="134"/>
-      <c r="B4" s="91"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
       <c r="E4" s="20" t="s">
@@ -2600,15 +2836,15 @@
         <f t="shared" si="0"/>
         <v>49.95</v>
       </c>
-      <c r="L4" s="59" t="s">
+      <c r="L4" s="58" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="136" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="91" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -2643,8 +2879,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="134"/>
-      <c r="B6" s="91"/>
+      <c r="A6" s="136"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="20" t="s">
@@ -2663,32 +2899,32 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135">
+      <c r="A7" s="137">
         <v>3</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="83" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="75">
+      <c r="F7" s="74">
         <v>0.23300000000000001</v>
       </c>
-      <c r="G7" s="75">
+      <c r="G7" s="74">
         <f t="shared" ref="G7:G62" si="1">1.2*F7</f>
         <v>0.27960000000000002</v>
       </c>
       <c r="H7" s="10">
         <v>0.1</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="74">
         <v>10</v>
       </c>
       <c r="J7" s="11">
@@ -2711,8 +2947,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="136"/>
-      <c r="B8" s="107" t="s">
+      <c r="A8" s="138"/>
+      <c r="B8" s="106" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="33" t="s">
@@ -2741,7 +2977,7 @@
         <f t="shared" si="2"/>
         <v>7.02</v>
       </c>
-      <c r="K8" s="76">
+      <c r="K8" s="75">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
@@ -2757,8 +2993,8 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="136"/>
-      <c r="B9" s="108" t="s">
+      <c r="A9" s="138"/>
+      <c r="B9" s="107" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="33" t="s">
@@ -2787,7 +3023,7 @@
         <f t="shared" si="2"/>
         <v>4.5990000000000002</v>
       </c>
-      <c r="K9" s="76">
+      <c r="K9" s="75">
         <f t="shared" si="3"/>
         <v>5.5187999999999997</v>
       </c>
@@ -2800,8 +3036,8 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="136"/>
-      <c r="B10" s="109" t="s">
+      <c r="A10" s="138"/>
+      <c r="B10" s="108" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="34" t="s">
@@ -2830,7 +3066,7 @@
         <f t="shared" si="2"/>
         <v>24.768900000000002</v>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="84">
         <f t="shared" si="3"/>
         <v>29.72268</v>
       </c>
@@ -2846,8 +3082,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="109" t="s">
+      <c r="A11" s="138"/>
+      <c r="B11" s="108" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="27" t="s">
@@ -2876,7 +3112,7 @@
         <f t="shared" si="2"/>
         <v>8.9027999999999992</v>
       </c>
-      <c r="K11" s="76">
+      <c r="K11" s="75">
         <f t="shared" si="3"/>
         <v>10.683359999999999</v>
       </c>
@@ -2892,8 +3128,8 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="109" t="s">
+      <c r="A12" s="138"/>
+      <c r="B12" s="108" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="27" t="s">
@@ -2920,21 +3156,21 @@
         <f t="shared" ref="J12:J16" si="6">I12*F12*(1-H12)</f>
         <v>21.905999999999999</v>
       </c>
-      <c r="K12" s="85">
+      <c r="K12" s="84">
         <f t="shared" ref="K12:K16" si="7">J12*1.2</f>
         <v>26.287199999999999</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="O12" s="143">
+      <c r="O12" s="134">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="136"/>
-      <c r="B13" s="109" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="108" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="27" t="s">
@@ -2961,21 +3197,21 @@
         <f t="shared" si="6"/>
         <v>42.984000000000002</v>
       </c>
-      <c r="K13" s="76">
+      <c r="K13" s="75">
         <f t="shared" si="7"/>
         <v>51.580800000000004</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="O13" s="143">
+      <c r="O13" s="134">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="136"/>
-      <c r="B14" s="109" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="108" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="27" t="s">
@@ -3002,7 +3238,7 @@
         <f t="shared" si="6"/>
         <v>11.439000000000002</v>
       </c>
-      <c r="K14" s="85">
+      <c r="K14" s="84">
         <f t="shared" si="7"/>
         <v>13.726800000000003</v>
       </c>
@@ -3015,20 +3251,20 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="136"/>
-      <c r="B15" s="108" t="s">
+      <c r="A15" s="138"/>
+      <c r="B15" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="86" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="87" t="s">
         <v>240</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="87">
         <v>16.47</v>
       </c>
       <c r="G15" s="24">
@@ -3038,14 +3274,14 @@
       <c r="H15" s="35">
         <v>0.1</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="87">
         <v>2</v>
       </c>
       <c r="J15" s="26">
         <f t="shared" ref="J15" si="8">I15*F15*(1-H15)</f>
         <v>29.645999999999997</v>
       </c>
-      <c r="K15" s="85">
+      <c r="K15" s="84">
         <f t="shared" ref="K15" si="9">J15*1.2</f>
         <v>35.575199999999995</v>
       </c>
@@ -3058,35 +3294,35 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="136"/>
-      <c r="B16" s="110" t="s">
+      <c r="A16" s="138"/>
+      <c r="B16" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="C16" s="82" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78">
+      <c r="E16" s="77"/>
+      <c r="F16" s="77">
         <v>11.11</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="77">
         <f t="shared" si="5"/>
         <v>13.331999999999999</v>
       </c>
-      <c r="H16" s="79">
+      <c r="H16" s="78">
         <v>0.1</v>
       </c>
-      <c r="I16" s="78">
+      <c r="I16" s="77">
         <v>1</v>
       </c>
-      <c r="J16" s="80">
+      <c r="J16" s="79">
         <f t="shared" si="6"/>
         <v>9.9990000000000006</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K16" s="80">
         <f t="shared" si="7"/>
         <v>11.998800000000001</v>
       </c>
@@ -3099,11 +3335,11 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="136"/>
-      <c r="B17" s="111" t="s">
+      <c r="A17" s="138"/>
+      <c r="B17" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="84" t="s">
+      <c r="C17" s="83" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -3142,8 +3378,8 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="136"/>
-      <c r="B18" s="112" t="s">
+      <c r="A18" s="138"/>
+      <c r="B18" s="111" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="27" t="s">
@@ -3172,7 +3408,7 @@
         <f>I18*F18*(1-H18)</f>
         <v>7.38</v>
       </c>
-      <c r="K18" s="76">
+      <c r="K18" s="75">
         <f>J18*1.2</f>
         <v>8.8559999999999999</v>
       </c>
@@ -3188,8 +3424,8 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="136"/>
-      <c r="B19" s="112" t="s">
+      <c r="A19" s="138"/>
+      <c r="B19" s="111" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="27" t="s">
@@ -3218,7 +3454,7 @@
         <f>I19*F19*(1-H19)</f>
         <v>7.5600000000000005</v>
       </c>
-      <c r="K19" s="76">
+      <c r="K19" s="75">
         <f>J19*1.2</f>
         <v>9.072000000000001</v>
       </c>
@@ -3228,14 +3464,14 @@
       <c r="M19">
         <v>4</v>
       </c>
-      <c r="O19" s="144">
+      <c r="O19" s="135">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="136"/>
-      <c r="B20" s="112" t="s">
+      <c r="A20" s="138"/>
+      <c r="B20" s="111" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="33" t="s">
@@ -3264,7 +3500,7 @@
         <f>I20*F20*(1-H20)</f>
         <v>1.2420000000000002</v>
       </c>
-      <c r="K20" s="76">
+      <c r="K20" s="75">
         <f>J20*1.2</f>
         <v>1.4904000000000002</v>
       </c>
@@ -3280,8 +3516,8 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="136"/>
-      <c r="B21" s="113" t="s">
+      <c r="A21" s="138"/>
+      <c r="B21" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="27" t="s">
@@ -3308,21 +3544,21 @@
         <f t="shared" si="2"/>
         <v>7.0200000000000005</v>
       </c>
-      <c r="K21" s="76">
+      <c r="K21" s="75">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
       <c r="M21">
         <v>1</v>
       </c>
-      <c r="O21" s="144">
+      <c r="O21" s="135">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="136"/>
-      <c r="B22" s="113" t="s">
+      <c r="A22" s="138"/>
+      <c r="B22" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -3351,7 +3587,7 @@
         <f t="shared" si="2"/>
         <v>3.2399999999999998</v>
       </c>
-      <c r="K22" s="76">
+      <c r="K22" s="75">
         <f t="shared" si="3"/>
         <v>3.8879999999999995</v>
       </c>
@@ -3367,8 +3603,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="136"/>
-      <c r="B23" s="113" t="s">
+      <c r="A23" s="138"/>
+      <c r="B23" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="27" t="s">
@@ -3397,7 +3633,7 @@
         <f t="shared" si="2"/>
         <v>4.0680000000000005</v>
       </c>
-      <c r="K23" s="76">
+      <c r="K23" s="75">
         <f t="shared" si="3"/>
         <v>4.8816000000000006</v>
       </c>
@@ -3413,8 +3649,8 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="136"/>
-      <c r="B24" s="113" t="s">
+      <c r="A24" s="138"/>
+      <c r="B24" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -3443,7 +3679,7 @@
         <f t="shared" si="2"/>
         <v>67.212000000000003</v>
       </c>
-      <c r="K24" s="76">
+      <c r="K24" s="75">
         <f t="shared" si="3"/>
         <v>80.654399999999995</v>
       </c>
@@ -3453,14 +3689,14 @@
       <c r="M24">
         <v>1</v>
       </c>
-      <c r="O24" s="143">
+      <c r="O24" s="134">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="136"/>
-      <c r="B25" s="113" t="s">
+      <c r="A25" s="138"/>
+      <c r="B25" s="112" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="27" t="s">
@@ -3489,7 +3725,7 @@
         <f t="shared" si="2"/>
         <v>3.9420000000000002</v>
       </c>
-      <c r="K25" s="76">
+      <c r="K25" s="75">
         <f t="shared" si="3"/>
         <v>4.7304000000000004</v>
       </c>
@@ -3505,35 +3741,35 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="136"/>
-      <c r="B26" s="114" t="s">
+      <c r="A26" s="138"/>
+      <c r="B26" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78">
+      <c r="E26" s="77"/>
+      <c r="F26" s="77">
         <v>20.57</v>
       </c>
-      <c r="G26" s="78">
+      <c r="G26" s="77">
         <f t="shared" si="1"/>
         <v>24.684000000000001</v>
       </c>
-      <c r="H26" s="79">
+      <c r="H26" s="78">
         <v>0.1</v>
       </c>
-      <c r="I26" s="78">
+      <c r="I26" s="77">
         <v>2</v>
       </c>
-      <c r="J26" s="80">
+      <c r="J26" s="79">
         <f t="shared" si="2"/>
         <v>37.026000000000003</v>
       </c>
-      <c r="K26" s="81">
+      <c r="K26" s="80">
         <f t="shared" si="3"/>
         <v>44.431200000000004</v>
       </c>
@@ -3543,34 +3779,34 @@
       <c r="M26">
         <v>1</v>
       </c>
-      <c r="O26" s="143">
+      <c r="O26" s="134">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="136"/>
-      <c r="B27" s="115" t="s">
+      <c r="A27" s="138"/>
+      <c r="B27" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="75" t="s">
+      <c r="D27" s="74" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75">
+      <c r="E27" s="74"/>
+      <c r="F27" s="74">
         <v>2.96</v>
       </c>
-      <c r="G27" s="75">
+      <c r="G27" s="74">
         <f t="shared" si="1"/>
         <v>3.552</v>
       </c>
       <c r="H27" s="10">
         <v>0.1</v>
       </c>
-      <c r="I27" s="75">
+      <c r="I27" s="74">
         <v>3</v>
       </c>
       <c r="J27" s="11">
@@ -3584,14 +3820,14 @@
       <c r="M27">
         <v>1</v>
       </c>
-      <c r="O27" s="143">
+      <c r="O27" s="134">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="136"/>
-      <c r="B28" s="116" t="s">
+      <c r="A28" s="138"/>
+      <c r="B28" s="115" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -3618,7 +3854,7 @@
         <f t="shared" si="2"/>
         <v>2.3220000000000001</v>
       </c>
-      <c r="K28" s="76">
+      <c r="K28" s="75">
         <f t="shared" si="3"/>
         <v>2.7864</v>
       </c>
@@ -3634,8 +3870,8 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="136"/>
-      <c r="B29" s="116" t="s">
+      <c r="A29" s="138"/>
+      <c r="B29" s="115" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="27" t="s">
@@ -3662,7 +3898,7 @@
         <f t="shared" si="2"/>
         <v>2.4390000000000001</v>
       </c>
-      <c r="K29" s="76">
+      <c r="K29" s="75">
         <f t="shared" si="3"/>
         <v>2.9268000000000001</v>
       </c>
@@ -3678,8 +3914,8 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="136"/>
-      <c r="B30" s="116" t="s">
+      <c r="A30" s="138"/>
+      <c r="B30" s="115" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="27" t="s">
@@ -3708,21 +3944,21 @@
         <f t="shared" si="2"/>
         <v>4.995000000000001</v>
       </c>
-      <c r="K30" s="76">
+      <c r="K30" s="75">
         <f t="shared" si="3"/>
         <v>5.9940000000000007</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
-      <c r="O30" s="143">
+      <c r="O30" s="134">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="136"/>
-      <c r="B31" s="116" t="s">
+      <c r="A31" s="138"/>
+      <c r="B31" s="115" t="s">
         <v>83</v>
       </c>
       <c r="C31" s="31" t="s">
@@ -3749,21 +3985,21 @@
         <f t="shared" si="2"/>
         <v>12.096</v>
       </c>
-      <c r="K31" s="76">
+      <c r="K31" s="75">
         <f t="shared" si="3"/>
         <v>14.5152</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
-      <c r="O31" s="143">
+      <c r="O31" s="134">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="136"/>
-      <c r="B32" s="116" t="s">
+      <c r="A32" s="138"/>
+      <c r="B32" s="115" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="27" t="s">
@@ -3790,7 +4026,7 @@
         <f t="shared" si="2"/>
         <v>7.5600000000000005</v>
       </c>
-      <c r="K32" s="76">
+      <c r="K32" s="75">
         <f t="shared" si="3"/>
         <v>9.072000000000001</v>
       </c>
@@ -3806,8 +4042,8 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="136"/>
-      <c r="B33" s="116" t="s">
+      <c r="A33" s="138"/>
+      <c r="B33" s="115" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="31" t="s">
@@ -3834,7 +4070,7 @@
         <f t="shared" si="2"/>
         <v>4.7699999999999996</v>
       </c>
-      <c r="K33" s="76">
+      <c r="K33" s="75">
         <f t="shared" si="3"/>
         <v>5.7239999999999993</v>
       </c>
@@ -3850,8 +4086,8 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="136"/>
-      <c r="B34" s="116" t="s">
+      <c r="A34" s="138"/>
+      <c r="B34" s="115" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="27" t="s">
@@ -3878,7 +4114,7 @@
         <f t="shared" si="2"/>
         <v>5.3549999999999995</v>
       </c>
-      <c r="K34" s="76">
+      <c r="K34" s="75">
         <f t="shared" si="3"/>
         <v>6.4259999999999993</v>
       </c>
@@ -3894,8 +4130,8 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="136"/>
-      <c r="B35" s="116" t="s">
+      <c r="A35" s="138"/>
+      <c r="B35" s="115" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="27" t="s">
@@ -3924,7 +4160,7 @@
         <f t="shared" si="2"/>
         <v>2.286</v>
       </c>
-      <c r="K35" s="76">
+      <c r="K35" s="75">
         <f t="shared" si="3"/>
         <v>2.7431999999999999</v>
       </c>
@@ -3940,8 +4176,8 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="136"/>
-      <c r="B36" s="116" t="s">
+      <c r="A36" s="138"/>
+      <c r="B36" s="115" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="27" t="s">
@@ -3970,7 +4206,7 @@
         <f t="shared" si="2"/>
         <v>7.7220000000000004</v>
       </c>
-      <c r="K36" s="76">
+      <c r="K36" s="75">
         <f t="shared" si="3"/>
         <v>9.2664000000000009</v>
       </c>
@@ -3986,11 +4222,11 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="136"/>
-      <c r="B37" s="116" t="s">
+      <c r="A37" s="138"/>
+      <c r="B37" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="73" t="s">
+      <c r="C37" s="72" t="s">
         <v>216</v>
       </c>
       <c r="D37" s="28" t="s">
@@ -4014,7 +4250,7 @@
         <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
-      <c r="K37" s="76">
+      <c r="K37" s="75">
         <f t="shared" si="3"/>
         <v>1.296</v>
       </c>
@@ -4030,11 +4266,11 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="136"/>
-      <c r="B38" s="116" t="s">
+      <c r="A38" s="138"/>
+      <c r="B38" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C38" s="73" t="s">
+      <c r="C38" s="72" t="s">
         <v>219</v>
       </c>
       <c r="D38" s="28" t="s">
@@ -4058,7 +4294,7 @@
         <f t="shared" si="2"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="K38" s="76">
+      <c r="K38" s="75">
         <f t="shared" si="3"/>
         <v>1.458</v>
       </c>
@@ -4074,11 +4310,11 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="136"/>
-      <c r="B39" s="116" t="s">
+      <c r="A39" s="138"/>
+      <c r="B39" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="72" t="s">
         <v>221</v>
       </c>
       <c r="D39" s="28" t="s">
@@ -4102,7 +4338,7 @@
         <f t="shared" si="2"/>
         <v>1.2150000000000001</v>
       </c>
-      <c r="K39" s="76">
+      <c r="K39" s="75">
         <f t="shared" si="3"/>
         <v>1.458</v>
       </c>
@@ -4118,11 +4354,11 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="136"/>
-      <c r="B40" s="116" t="s">
+      <c r="A40" s="138"/>
+      <c r="B40" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="73" t="s">
+      <c r="C40" s="72" t="s">
         <v>223</v>
       </c>
       <c r="D40" s="28" t="s">
@@ -4146,7 +4382,7 @@
         <f t="shared" ref="J40:J49" si="11">I40*F40*(1-H40)</f>
         <v>1.5750000000000002</v>
       </c>
-      <c r="K40" s="76">
+      <c r="K40" s="75">
         <f t="shared" ref="K40:K49" si="12">J40*1.2</f>
         <v>1.8900000000000001</v>
       </c>
@@ -4162,11 +4398,11 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="136"/>
-      <c r="B41" s="116" t="s">
+      <c r="A41" s="138"/>
+      <c r="B41" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C41" s="72" t="s">
         <v>225</v>
       </c>
       <c r="D41" s="28" t="s">
@@ -4190,7 +4426,7 @@
         <f t="shared" ref="J41:J44" si="14">I41*F41*(1-H41)</f>
         <v>1.6649999999999998</v>
       </c>
-      <c r="K41" s="76">
+      <c r="K41" s="75">
         <f t="shared" ref="K41:K44" si="15">J41*1.2</f>
         <v>1.9979999999999998</v>
       </c>
@@ -4206,11 +4442,11 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="136"/>
-      <c r="B42" s="116" t="s">
+      <c r="A42" s="138"/>
+      <c r="B42" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="73" t="s">
+      <c r="C42" s="72" t="s">
         <v>227</v>
       </c>
       <c r="D42" s="28" t="s">
@@ -4234,7 +4470,7 @@
         <f t="shared" si="14"/>
         <v>7.1550000000000002</v>
       </c>
-      <c r="K42" s="76">
+      <c r="K42" s="75">
         <f t="shared" si="15"/>
         <v>8.5860000000000003</v>
       </c>
@@ -4250,11 +4486,11 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="136"/>
-      <c r="B43" s="117" t="s">
+      <c r="A43" s="138"/>
+      <c r="B43" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="100" t="s">
         <v>229</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -4294,11 +4530,11 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="136"/>
-      <c r="B44" s="118" t="s">
+      <c r="A44" s="138"/>
+      <c r="B44" s="117" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="100" t="s">
         <v>247</v>
       </c>
       <c r="D44" s="14" t="s">
@@ -4338,35 +4574,35 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="136"/>
-      <c r="B45" s="119" t="s">
+      <c r="A45" s="138"/>
+      <c r="B45" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="C45" s="77" t="s">
+      <c r="C45" s="76" t="s">
         <v>242</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78">
+      <c r="E45" s="77"/>
+      <c r="F45" s="77">
         <v>13.88</v>
       </c>
-      <c r="G45" s="78">
+      <c r="G45" s="77">
         <f t="shared" ref="G45" si="16">1.2*F45</f>
         <v>16.655999999999999</v>
       </c>
-      <c r="H45" s="79">
+      <c r="H45" s="78">
         <v>0.1</v>
       </c>
-      <c r="I45" s="78">
+      <c r="I45" s="77">
         <v>1</v>
       </c>
-      <c r="J45" s="80">
+      <c r="J45" s="79">
         <f t="shared" ref="J45" si="17">I45*F45*(1-H45)</f>
         <v>12.492000000000001</v>
       </c>
-      <c r="K45" s="81">
+      <c r="K45" s="80">
         <f t="shared" ref="K45" si="18">J45*1.2</f>
         <v>14.990400000000001</v>
       </c>
@@ -4379,35 +4615,35 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="136"/>
-      <c r="B46" s="120" t="s">
+      <c r="A46" s="138"/>
+      <c r="B46" s="119" t="s">
         <v>183</v>
       </c>
-      <c r="C46" s="89" t="s">
+      <c r="C46" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="D46" s="90" t="s">
+      <c r="D46" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90">
+      <c r="E46" s="89"/>
+      <c r="F46" s="89">
         <v>16.28</v>
       </c>
-      <c r="G46" s="90">
+      <c r="G46" s="89">
         <f t="shared" si="13"/>
         <v>19.536000000000001</v>
       </c>
-      <c r="H46" s="98">
+      <c r="H46" s="97">
         <v>0.1</v>
       </c>
-      <c r="I46" s="90">
+      <c r="I46" s="89">
         <v>1</v>
       </c>
-      <c r="J46" s="99">
+      <c r="J46" s="98">
         <f t="shared" ref="J46" si="19">I46*F46*(1-H46)</f>
         <v>14.652000000000001</v>
       </c>
-      <c r="K46" s="100">
+      <c r="K46" s="99">
         <f t="shared" ref="K46" si="20">J46*1.2</f>
         <v>17.5824</v>
       </c>
@@ -4420,8 +4656,8 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="136"/>
-      <c r="B47" s="121" t="s">
+      <c r="A47" s="138"/>
+      <c r="B47" s="120" t="s">
         <v>183</v>
       </c>
       <c r="C47" s="27" t="s">
@@ -4448,7 +4684,7 @@
         <f t="shared" si="11"/>
         <v>2.0340000000000003</v>
       </c>
-      <c r="K47" s="76">
+      <c r="K47" s="75">
         <f t="shared" si="12"/>
         <v>2.4408000000000003</v>
       </c>
@@ -4464,8 +4700,8 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="136"/>
-      <c r="B48" s="122" t="s">
+      <c r="A48" s="138"/>
+      <c r="B48" s="121" t="s">
         <v>183</v>
       </c>
       <c r="C48" s="27" t="s">
@@ -4494,7 +4730,7 @@
         <f t="shared" si="11"/>
         <v>0.94500000000000006</v>
       </c>
-      <c r="K48" s="76">
+      <c r="K48" s="75">
         <f t="shared" si="12"/>
         <v>1.1340000000000001</v>
       </c>
@@ -4507,8 +4743,8 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="136"/>
-      <c r="B49" s="122" t="s">
+      <c r="A49" s="138"/>
+      <c r="B49" s="121" t="s">
         <v>183</v>
       </c>
       <c r="C49" s="27" t="s">
@@ -4537,21 +4773,21 @@
         <f t="shared" si="11"/>
         <v>4.59</v>
       </c>
-      <c r="K49" s="76">
+      <c r="K49" s="75">
         <f t="shared" si="12"/>
         <v>5.508</v>
       </c>
       <c r="M49">
         <v>5</v>
       </c>
-      <c r="O49" s="143">
+      <c r="O49" s="134">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="136"/>
-      <c r="B50" s="122" t="s">
+      <c r="A50" s="138"/>
+      <c r="B50" s="121" t="s">
         <v>183</v>
       </c>
       <c r="C50" s="27" t="s">
@@ -4580,7 +4816,7 @@
         <f t="shared" si="2"/>
         <v>2.286</v>
       </c>
-      <c r="K50" s="76">
+      <c r="K50" s="75">
         <f t="shared" si="3"/>
         <v>2.7431999999999999</v>
       </c>
@@ -4596,55 +4832,55 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="136"/>
-      <c r="B51" s="123" t="s">
+      <c r="A51" s="138"/>
+      <c r="B51" s="122" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="83" t="s">
+      <c r="C51" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="D51" s="78" t="s">
+      <c r="D51" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="E51" s="78" t="s">
+      <c r="E51" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="78">
+      <c r="F51" s="77">
         <v>1.76</v>
       </c>
-      <c r="G51" s="78">
+      <c r="G51" s="77">
         <f t="shared" ref="G51" si="21">1.2*F51</f>
         <v>2.1120000000000001</v>
       </c>
-      <c r="H51" s="79">
+      <c r="H51" s="78">
         <v>0.1</v>
       </c>
-      <c r="I51" s="78">
+      <c r="I51" s="77">
         <v>10</v>
       </c>
-      <c r="J51" s="80">
+      <c r="J51" s="79">
         <f t="shared" ref="J51" si="22">I51*F51*(1-H51)</f>
         <v>15.840000000000002</v>
       </c>
-      <c r="K51" s="81">
+      <c r="K51" s="80">
         <f t="shared" ref="K51" si="23">J51*1.2</f>
         <v>19.008000000000003</v>
       </c>
       <c r="M51">
         <v>5</v>
       </c>
-      <c r="O51" s="143">
+      <c r="O51" s="134">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="P51" s="143"/>
+      <c r="P51" s="134"/>
     </row>
     <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="136"/>
-      <c r="B52" s="124" t="s">
+      <c r="A52" s="138"/>
+      <c r="B52" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="84" t="s">
+      <c r="C52" s="83" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -4677,14 +4913,14 @@
       <c r="M52">
         <v>1</v>
       </c>
-      <c r="O52" s="143">
+      <c r="O52" s="134">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="136"/>
-      <c r="B53" s="125" t="s">
+      <c r="A53" s="138"/>
+      <c r="B53" s="124" t="s">
         <v>24</v>
       </c>
       <c r="C53" s="27" t="s">
@@ -4713,7 +4949,7 @@
         <f>I53*F53*(1-H53)</f>
         <v>14.4</v>
       </c>
-      <c r="K53" s="76">
+      <c r="K53" s="75">
         <f>J53*1.2</f>
         <v>17.28</v>
       </c>
@@ -4726,8 +4962,8 @@
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="136"/>
-      <c r="B54" s="125" t="s">
+      <c r="A54" s="138"/>
+      <c r="B54" s="124" t="s">
         <v>24</v>
       </c>
       <c r="C54" s="31" t="s">
@@ -4736,7 +4972,7 @@
       <c r="D54" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="86" t="s">
+      <c r="E54" s="85" t="s">
         <v>32</v>
       </c>
       <c r="F54" s="28">
@@ -4756,21 +4992,21 @@
         <f>I54*F54*(1-H54)</f>
         <v>14.822999999999999</v>
       </c>
-      <c r="K54" s="76">
+      <c r="K54" s="75">
         <f>J54*1.2</f>
         <v>17.787599999999998</v>
       </c>
-      <c r="O54" s="143">
+      <c r="O54" s="134">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="136"/>
-      <c r="B55" s="125" t="s">
+      <c r="A55" s="138"/>
+      <c r="B55" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="95" t="s">
+      <c r="C55" s="94" t="s">
         <v>103</v>
       </c>
       <c r="D55" s="32" t="s">
@@ -4794,7 +5030,7 @@
         <f t="shared" si="2"/>
         <v>1.3049999999999999</v>
       </c>
-      <c r="K55" s="76">
+      <c r="K55" s="75">
         <f t="shared" si="3"/>
         <v>1.5659999999999998</v>
       </c>
@@ -4807,11 +5043,11 @@
       </c>
     </row>
     <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="136"/>
-      <c r="B56" s="125" t="s">
+      <c r="A56" s="138"/>
+      <c r="B56" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="96" t="s">
+      <c r="C56" s="95" t="s">
         <v>105</v>
       </c>
       <c r="D56" s="32" t="s">
@@ -4835,7 +5071,7 @@
         <f t="shared" si="2"/>
         <v>1.71</v>
       </c>
-      <c r="K56" s="76">
+      <c r="K56" s="75">
         <f t="shared" si="3"/>
         <v>2.052</v>
       </c>
@@ -4851,11 +5087,11 @@
       </c>
     </row>
     <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="136"/>
-      <c r="B57" s="125" t="s">
+      <c r="A57" s="138"/>
+      <c r="B57" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C57" s="96" t="s">
+      <c r="C57" s="95" t="s">
         <v>108</v>
       </c>
       <c r="D57" s="32" t="s">
@@ -4879,7 +5115,7 @@
         <f t="shared" si="2"/>
         <v>3.2399999999999998</v>
       </c>
-      <c r="K57" s="76">
+      <c r="K57" s="75">
         <f t="shared" si="3"/>
         <v>3.8879999999999995</v>
       </c>
@@ -4895,11 +5131,11 @@
       </c>
     </row>
     <row r="58" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="136"/>
-      <c r="B58" s="125" t="s">
+      <c r="A58" s="138"/>
+      <c r="B58" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="96" t="s">
+      <c r="C58" s="95" t="s">
         <v>110</v>
       </c>
       <c r="D58" s="32" t="s">
@@ -4923,7 +5159,7 @@
         <f t="shared" si="2"/>
         <v>4.2750000000000004</v>
       </c>
-      <c r="K58" s="76">
+      <c r="K58" s="75">
         <f t="shared" si="3"/>
         <v>5.13</v>
       </c>
@@ -4939,11 +5175,11 @@
       </c>
     </row>
     <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="136"/>
-      <c r="B59" s="125" t="s">
+      <c r="A59" s="138"/>
+      <c r="B59" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="96" t="s">
+      <c r="C59" s="95" t="s">
         <v>112</v>
       </c>
       <c r="D59" s="32" t="s">
@@ -4967,7 +5203,7 @@
         <f t="shared" si="2"/>
         <v>2.4750000000000001</v>
       </c>
-      <c r="K59" s="76">
+      <c r="K59" s="75">
         <f t="shared" si="3"/>
         <v>2.97</v>
       </c>
@@ -4980,11 +5216,11 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="136"/>
-      <c r="B60" s="125" t="s">
+      <c r="A60" s="138"/>
+      <c r="B60" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="96" t="s">
+      <c r="C60" s="95" t="s">
         <v>243</v>
       </c>
       <c r="D60" s="32" t="s">
@@ -5008,7 +5244,7 @@
         <f t="shared" ref="J60" si="25">I60*F60*(1-H60)</f>
         <v>10.934999999999999</v>
       </c>
-      <c r="K60" s="76">
+      <c r="K60" s="75">
         <f t="shared" ref="K60" si="26">J60*1.2</f>
         <v>13.121999999999998</v>
       </c>
@@ -5018,17 +5254,17 @@
       <c r="M60">
         <v>1</v>
       </c>
-      <c r="O60" s="144">
+      <c r="O60" s="135">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="136"/>
-      <c r="B61" s="125" t="s">
+      <c r="A61" s="138"/>
+      <c r="B61" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="96" t="s">
+      <c r="C61" s="95" t="s">
         <v>244</v>
       </c>
       <c r="D61" s="32" t="s">
@@ -5052,45 +5288,45 @@
         <f t="shared" si="2"/>
         <v>3.0240000000000005</v>
       </c>
-      <c r="K61" s="76">
+      <c r="K61" s="75">
         <f t="shared" si="3"/>
         <v>3.6288000000000005</v>
       </c>
-      <c r="O61" s="144">
+      <c r="O61" s="135">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="136"/>
-      <c r="B62" s="126" t="s">
+      <c r="A62" s="138"/>
+      <c r="B62" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="97" t="s">
+      <c r="C62" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="D62" s="82" t="s">
+      <c r="D62" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78">
+      <c r="E62" s="77"/>
+      <c r="F62" s="77">
         <v>0.156</v>
       </c>
-      <c r="G62" s="78">
+      <c r="G62" s="77">
         <f t="shared" si="1"/>
         <v>0.18720000000000001</v>
       </c>
-      <c r="H62" s="79">
+      <c r="H62" s="78">
         <v>0.1</v>
       </c>
-      <c r="I62" s="78">
+      <c r="I62" s="77">
         <v>50</v>
       </c>
-      <c r="J62" s="80">
+      <c r="J62" s="79">
         <f t="shared" si="2"/>
         <v>7.02</v>
       </c>
-      <c r="K62" s="81">
+      <c r="K62" s="80">
         <f t="shared" si="3"/>
         <v>8.4239999999999995</v>
       </c>
@@ -5106,35 +5342,35 @@
       </c>
     </row>
     <row r="63" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="137"/>
-      <c r="B63" s="131" t="s">
+      <c r="A63" s="139"/>
+      <c r="B63" s="130" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="133" t="s">
+      <c r="C63" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="D63" s="127" t="s">
+      <c r="D63" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="E63" s="128"/>
-      <c r="F63" s="128">
+      <c r="E63" s="127"/>
+      <c r="F63" s="127">
         <v>1.1559999999999999</v>
       </c>
-      <c r="G63" s="128">
+      <c r="G63" s="127">
         <f t="shared" ref="G63" si="27">1.2*F63</f>
         <v>1.3871999999999998</v>
       </c>
-      <c r="H63" s="129">
+      <c r="H63" s="128">
         <v>0.1</v>
       </c>
-      <c r="I63" s="128">
+      <c r="I63" s="127">
         <v>1</v>
       </c>
-      <c r="J63" s="130">
+      <c r="J63" s="129">
         <f t="shared" ref="J63" si="28">I63*F63*(1-H63)</f>
         <v>1.0404</v>
       </c>
-      <c r="K63" s="132">
+      <c r="K63" s="131">
         <f t="shared" ref="K63" si="29">J63*1.2</f>
         <v>1.24848</v>
       </c>
@@ -5148,16 +5384,16 @@
       </c>
     </row>
     <row r="64" spans="1:16" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="102"/>
-      <c r="E64" s="103" t="s">
+      <c r="C64" s="101"/>
+      <c r="E64" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="F64" s="104"/>
-      <c r="G64" s="104"/>
-      <c r="H64" s="104"/>
-      <c r="I64" s="104"/>
-      <c r="J64" s="104"/>
-      <c r="K64" s="105">
+      <c r="F64" s="103"/>
+      <c r="G64" s="103"/>
+      <c r="H64" s="103"/>
+      <c r="I64" s="103"/>
+      <c r="J64" s="103"/>
+      <c r="K64" s="104">
         <f>SUM(K7:K63)</f>
         <v>679.79412000000002</v>
       </c>
@@ -6265,7 +6501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6276,32 +6512,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="63" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="64" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="65" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="66" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6313,297 +6549,508 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1"/>
-    <col min="12" max="1025" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="13" max="1026" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="144" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="38">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="145">
+        <v>1</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="8">
         <v>2313118</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="D2" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="E2" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="45">
+      <c r="F2" s="148">
         <v>3.17</v>
       </c>
-      <c r="F2" s="45">
-        <f>1.2*E2</f>
+      <c r="G2" s="148">
+        <f>1.2*F2</f>
         <v>3.8039999999999998</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8">
         <v>1</v>
       </c>
-      <c r="I2" s="45">
-        <f>H2*E2</f>
+      <c r="J2" s="148">
+        <f>I2*F2</f>
         <v>3.17</v>
       </c>
-      <c r="J2" s="45">
-        <f>F2*H2</f>
+      <c r="K2" s="149">
+        <f>G2*I2</f>
         <v>3.8039999999999998</v>
       </c>
-      <c r="K2" s="38"/>
-    </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="38">
+      <c r="L2" s="38"/>
+    </row>
+    <row r="3" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="146"/>
+      <c r="B3" s="152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="153">
         <v>488203</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="D3" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="45">
+      <c r="E3" s="14"/>
+      <c r="F3" s="154">
         <v>0.48</v>
       </c>
-      <c r="F3" s="45">
-        <f>1.2*E3</f>
+      <c r="G3" s="154">
+        <f>1.2*F3</f>
         <v>0.57599999999999996</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38">
+      <c r="H3" s="153"/>
+      <c r="I3" s="153">
         <v>10</v>
       </c>
-      <c r="I3" s="45">
-        <f>H3*E3</f>
+      <c r="J3" s="154">
+        <f>I3*F3</f>
         <v>4.8</v>
       </c>
-      <c r="J3" s="45">
-        <f>F3*H3</f>
+      <c r="K3" s="155">
+        <f>G3*I3</f>
         <v>5.76</v>
       </c>
-      <c r="K3" s="46"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="46"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="38"/>
+      <c r="L3" s="46"/>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="170">
+        <v>2</v>
+      </c>
+      <c r="B4" s="157" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2611923</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="148">
+        <v>0.373</v>
+      </c>
+      <c r="G4" s="148">
+        <f t="shared" ref="G4:G11" si="0">1.2*F4</f>
+        <v>0.4476</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="8">
+        <v>10</v>
+      </c>
+      <c r="J4" s="148">
+        <f t="shared" ref="J4:J11" si="1">I4*F4</f>
+        <v>3.73</v>
+      </c>
+      <c r="K4" s="149">
+        <f t="shared" ref="K4:K11" si="2">G4*I4</f>
+        <v>4.476</v>
+      </c>
+      <c r="L4" s="46"/>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="171"/>
+      <c r="B5" s="168" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="164">
+        <v>2576913</v>
+      </c>
+      <c r="D5" s="165" t="s">
+        <v>261</v>
+      </c>
+      <c r="E5" s="32"/>
+      <c r="F5" s="37">
+        <v>19.66</v>
+      </c>
+      <c r="G5" s="37">
+        <f>1.2*F5</f>
+        <v>23.591999999999999</v>
+      </c>
+      <c r="H5" s="69"/>
+      <c r="I5" s="32">
+        <v>1</v>
+      </c>
+      <c r="J5" s="37">
+        <f>I5*F5</f>
+        <v>19.66</v>
+      </c>
+      <c r="K5" s="156">
+        <f>G5*I5</f>
+        <v>23.591999999999999</v>
+      </c>
+      <c r="L5" s="38"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="171"/>
+      <c r="B6" s="166" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="32">
+        <v>2335763</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="37">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" si="0"/>
+        <v>2.4359999999999995</v>
+      </c>
+      <c r="H6" s="69"/>
+      <c r="I6" s="32">
+        <v>4</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" si="1"/>
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="K6" s="156">
+        <f t="shared" si="2"/>
+        <v>9.743999999999998</v>
+      </c>
+      <c r="L6" s="38"/>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="171"/>
+      <c r="B7" s="167" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="69">
+        <v>1462838</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="37">
+        <v>0.09</v>
+      </c>
+      <c r="G7" s="37">
+        <f t="shared" si="0"/>
+        <v>0.108</v>
+      </c>
+      <c r="H7" s="69"/>
+      <c r="I7" s="32">
+        <v>100</v>
+      </c>
+      <c r="J7" s="37">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K7" s="156">
+        <f t="shared" si="2"/>
+        <v>10.8</v>
+      </c>
+      <c r="L7" s="38"/>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="171"/>
+      <c r="B8" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="32">
+        <v>488203</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="37">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="G8" s="37">
+        <f t="shared" si="0"/>
+        <v>0.5663999999999999</v>
+      </c>
+      <c r="H8" s="69"/>
+      <c r="I8" s="32">
+        <v>100</v>
+      </c>
+      <c r="J8" s="37">
+        <f t="shared" si="1"/>
+        <v>47.199999999999996</v>
+      </c>
+      <c r="K8" s="156">
+        <f t="shared" si="2"/>
+        <v>56.639999999999993</v>
+      </c>
+      <c r="L8" s="38"/>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="171"/>
+      <c r="B9" s="158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="32">
+        <v>2452544</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="37">
+        <v>0.214</v>
+      </c>
+      <c r="G9" s="37">
+        <f t="shared" si="0"/>
+        <v>0.25679999999999997</v>
+      </c>
+      <c r="H9" s="69"/>
+      <c r="I9" s="32">
+        <v>100</v>
+      </c>
+      <c r="J9" s="37">
+        <f t="shared" si="1"/>
+        <v>21.4</v>
+      </c>
+      <c r="K9" s="156">
+        <f t="shared" si="2"/>
+        <v>25.679999999999996</v>
+      </c>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="171"/>
+      <c r="B10" s="160" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="163">
+        <v>2822512</v>
+      </c>
+      <c r="D10" s="153" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="153"/>
+      <c r="F10" s="154">
+        <v>0.184</v>
+      </c>
+      <c r="G10" s="154">
+        <f t="shared" si="0"/>
+        <v>0.2208</v>
+      </c>
+      <c r="H10" s="161"/>
+      <c r="I10" s="153">
+        <v>5</v>
+      </c>
+      <c r="J10" s="154">
+        <f t="shared" si="1"/>
+        <v>0.91999999999999993</v>
+      </c>
+      <c r="K10" s="155">
+        <f t="shared" si="2"/>
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="172"/>
+      <c r="B11" s="159" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="81">
+        <v>2667832</v>
+      </c>
+      <c r="D11" s="169" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="81"/>
+      <c r="F11" s="150">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="G11" s="150">
+        <f t="shared" si="0"/>
+        <v>23.604000000000003</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="81">
+        <v>1</v>
+      </c>
+      <c r="J11" s="150">
+        <f t="shared" si="1"/>
+        <v>19.670000000000002</v>
+      </c>
+      <c r="K11" s="151">
+        <f t="shared" si="2"/>
+        <v>23.604000000000003</v>
+      </c>
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="67"/>
       <c r="C12" s="38"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="45"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="38"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="44"/>
       <c r="C13" s="38"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="46"/>
       <c r="F13" s="45"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="45"/>
-      <c r="K13" s="46"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="38"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="44"/>
       <c r="C14" s="38"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="45"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="46"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="46"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="44"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="45"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="45"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="46"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="44"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="44"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="I17" s="38"/>
       <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="46"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="44"/>
+      <c r="I18" s="38"/>
       <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="44"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="46"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="44"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="46"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="44"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" s="44"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Données!$A$1:$A$5</xm:f>
@@ -6611,7 +7058,16 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>A2:A20</xm:sqref>
+          <xm:sqref>B2:B3 B12:B22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B907E55F-DD64-43DB-AF65-00BB92578686}">
+          <x14:formula1>
+            <xm:f>Données!$A$1:$A$6</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>B11 B4:B10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6623,7 +7079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -6643,10 +7099,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="72" t="s">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="71" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="41" t="s">
@@ -6673,12 +7129,12 @@
       <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="142" t="s">
+      <c r="L1" s="133" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="32" t="s">
@@ -6694,7 +7150,7 @@
       <c r="F2" s="37">
         <v>25.48</v>
       </c>
-      <c r="G2" s="70"/>
+      <c r="G2" s="69"/>
       <c r="H2" s="32">
         <v>1</v>
       </c>
@@ -6710,7 +7166,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="32" t="s">
@@ -6726,7 +7182,7 @@
       <c r="F3" s="37">
         <v>0.23</v>
       </c>
-      <c r="G3" s="70"/>
+      <c r="G3" s="69"/>
       <c r="H3" s="32">
         <v>30</v>
       </c>
@@ -6742,7 +7198,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="32" t="s">
@@ -6758,7 +7214,7 @@
       <c r="F4" s="37">
         <v>0.26</v>
       </c>
-      <c r="G4" s="70"/>
+      <c r="G4" s="69"/>
       <c r="H4" s="32">
         <v>25</v>
       </c>
@@ -6776,7 +7232,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -6792,7 +7248,7 @@
       <c r="F5" s="37">
         <v>0.47</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="69"/>
       <c r="H5" s="32">
         <v>25</v>
       </c>
@@ -6810,7 +7266,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="32" t="s">
@@ -6826,7 +7282,7 @@
       <c r="F6" s="37">
         <v>0.26</v>
       </c>
-      <c r="G6" s="70"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="32">
         <v>25</v>
       </c>
@@ -6844,7 +7300,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="32" t="s">
@@ -6860,7 +7316,7 @@
       <c r="F7" s="37">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G7" s="70"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="32">
         <v>25</v>
       </c>
@@ -6878,7 +7334,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="32" t="s">
@@ -6894,7 +7350,7 @@
       <c r="F8" s="37">
         <v>0.27</v>
       </c>
-      <c r="G8" s="70"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="32">
         <v>25</v>
       </c>
@@ -6912,7 +7368,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B9" s="32" t="s">
@@ -6928,7 +7384,7 @@
       <c r="F9" s="37">
         <v>0.15</v>
       </c>
-      <c r="G9" s="70"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="32">
         <v>25</v>
       </c>
@@ -6944,7 +7400,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -6960,7 +7416,7 @@
       <c r="F10" s="37">
         <v>0.09</v>
       </c>
-      <c r="G10" s="70"/>
+      <c r="G10" s="69"/>
       <c r="H10" s="32">
         <v>25</v>
       </c>
@@ -6976,7 +7432,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="32" t="s">
@@ -6992,7 +7448,7 @@
       <c r="F11" s="37">
         <v>0.12</v>
       </c>
-      <c r="G11" s="70"/>
+      <c r="G11" s="69"/>
       <c r="H11" s="32">
         <v>25</v>
       </c>
@@ -7008,7 +7464,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="32" t="s">
@@ -7024,7 +7480,7 @@
       <c r="F12" s="37">
         <v>0.12</v>
       </c>
-      <c r="G12" s="70"/>
+      <c r="G12" s="69"/>
       <c r="H12" s="32">
         <v>25</v>
       </c>
@@ -7040,7 +7496,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="32" t="s">
@@ -7056,7 +7512,7 @@
       <c r="F13" s="37">
         <v>0.12</v>
       </c>
-      <c r="G13" s="70"/>
+      <c r="G13" s="69"/>
       <c r="H13" s="32">
         <v>25</v>
       </c>
@@ -7072,7 +7528,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="32" t="s">
@@ -7088,7 +7544,7 @@
       <c r="F14" s="37">
         <v>3.83</v>
       </c>
-      <c r="G14" s="70"/>
+      <c r="G14" s="69"/>
       <c r="H14" s="32">
         <v>4</v>
       </c>
@@ -7104,7 +7560,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="68"/>
+      <c r="A15" s="67"/>
       <c r="H15" s="38"/>
       <c r="I15" s="45"/>
       <c r="J15" s="45"/>
@@ -7112,14 +7568,14 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
-      <c r="E16" s="138" t="s">
+      <c r="E16" s="140" t="s">
         <v>206</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="139">
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="141">
         <f>SUM(J2:J14)</f>
         <v>101.52000000000001</v>
       </c>
@@ -7127,12 +7583,12 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="139"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
       <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7378,13 +7834,13 @@
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="53"/>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="140"/>
-      <c r="G3" s="140"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="140"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
       <c r="J3">
         <f>J2</f>
         <v>305.3</v>
@@ -7419,7 +7875,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7437,12 +7893,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="173" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7882,10 +8338,10 @@
       <c r="A2" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="54" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="55" t="s">
         <v>166</v>
       </c>
       <c r="D2" s="38" t="s">
@@ -8314,7 +8770,7 @@
       <c r="C2" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="56" t="s">
         <v>170</v>
       </c>
       <c r="G2" s="38"/>
@@ -8336,7 +8792,7 @@
       <c r="C3" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="56" t="s">
         <v>172</v>
       </c>
       <c r="G3" s="38"/>
@@ -8358,7 +8814,7 @@
       <c r="C4" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="56" t="s">
         <v>175</v>
       </c>
       <c r="G4" s="38"/>
@@ -8469,7 +8925,7 @@
       <c r="A3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>178</v>
       </c>
       <c r="D3" t="s">

--- a/EL - Electrical/Autre/Commandes_modifPTN.xlsx
+++ b/EL - Electrical/Autre/Commandes_modifPTN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\telep\Documents\STUF2019\EL - Electrical\Autre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F43337A-90CF-489C-85C9-2F3171C6A757}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34B441C-49DC-467E-B1C0-53613FBF4D3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RS components" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <externalReferences>
     <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -2157,37 +2157,7 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2249,6 +2219,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="19" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2258,8 +2249,17 @@
     <xf numFmtId="0" fontId="21" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2664,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P64"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S27" sqref="S26:S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,7 +2733,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="161" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="92" t="s">
@@ -2771,7 +2771,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="136"/>
+      <c r="A3" s="161"/>
       <c r="B3" s="93" t="s">
         <v>15</v>
       </c>
@@ -2805,7 +2805,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="136"/>
+      <c r="A4" s="161"/>
       <c r="B4" s="90"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -2841,7 +2841,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="161" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="91" t="s">
@@ -2879,7 +2879,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="136"/>
+      <c r="A6" s="161"/>
       <c r="B6" s="90"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
@@ -2899,7 +2899,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="137">
+      <c r="A7" s="162">
         <v>3</v>
       </c>
       <c r="B7" s="105" t="s">
@@ -2947,7 +2947,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="138"/>
+      <c r="A8" s="163"/>
       <c r="B8" s="106" t="s">
         <v>11</v>
       </c>
@@ -2993,7 +2993,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="138"/>
+      <c r="A9" s="163"/>
       <c r="B9" s="107" t="s">
         <v>11</v>
       </c>
@@ -3036,7 +3036,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="138"/>
+      <c r="A10" s="163"/>
       <c r="B10" s="108" t="s">
         <v>11</v>
       </c>
@@ -3082,7 +3082,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="138"/>
+      <c r="A11" s="163"/>
       <c r="B11" s="108" t="s">
         <v>11</v>
       </c>
@@ -3128,7 +3128,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="138"/>
+      <c r="A12" s="163"/>
       <c r="B12" s="108" t="s">
         <v>11</v>
       </c>
@@ -3169,7 +3169,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="108" t="s">
         <v>11</v>
       </c>
@@ -3210,7 +3210,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="138"/>
+      <c r="A14" s="163"/>
       <c r="B14" s="108" t="s">
         <v>11</v>
       </c>
@@ -3251,7 +3251,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="138"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="107" t="s">
         <v>11</v>
       </c>
@@ -3294,7 +3294,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="138"/>
+      <c r="A16" s="163"/>
       <c r="B16" s="109" t="s">
         <v>11</v>
       </c>
@@ -3335,7 +3335,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="138"/>
+      <c r="A17" s="163"/>
       <c r="B17" s="110" t="s">
         <v>15</v>
       </c>
@@ -3378,7 +3378,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
+      <c r="A18" s="163"/>
       <c r="B18" s="111" t="s">
         <v>15</v>
       </c>
@@ -3415,7 +3415,7 @@
       <c r="L18" t="s">
         <v>39</v>
       </c>
-      <c r="N18">
+      <c r="M18">
         <v>10</v>
       </c>
       <c r="O18">
@@ -3424,7 +3424,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
+      <c r="A19" s="163"/>
       <c r="B19" s="111" t="s">
         <v>15</v>
       </c>
@@ -3470,7 +3470,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
+      <c r="A20" s="163"/>
       <c r="B20" s="111" t="s">
         <v>15</v>
       </c>
@@ -3516,7 +3516,7 @@
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="138"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="112" t="s">
         <v>15</v>
       </c>
@@ -3557,7 +3557,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="138"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="112" t="s">
         <v>15</v>
       </c>
@@ -3603,7 +3603,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="138"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="112" t="s">
         <v>15</v>
       </c>
@@ -3649,7 +3649,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="138"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="112" t="s">
         <v>15</v>
       </c>
@@ -3695,7 +3695,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="138"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="112" t="s">
         <v>15</v>
       </c>
@@ -3741,7 +3741,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="138"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="113" t="s">
         <v>15</v>
       </c>
@@ -3785,7 +3785,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="138"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="114" t="s">
         <v>83</v>
       </c>
@@ -3826,7 +3826,7 @@
       </c>
     </row>
     <row r="28" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="138"/>
+      <c r="A28" s="163"/>
       <c r="B28" s="115" t="s">
         <v>83</v>
       </c>
@@ -3870,7 +3870,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="138"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="115" t="s">
         <v>83</v>
       </c>
@@ -3914,7 +3914,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="138"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="115" t="s">
         <v>83</v>
       </c>
@@ -3957,7 +3957,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="138"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="115" t="s">
         <v>83</v>
       </c>
@@ -3998,7 +3998,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="138"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="115" t="s">
         <v>83</v>
       </c>
@@ -4042,7 +4042,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="138"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="115" t="s">
         <v>83</v>
       </c>
@@ -4086,7 +4086,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="138"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="115" t="s">
         <v>83</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="L34" t="s">
         <v>97</v>
       </c>
-      <c r="N34">
+      <c r="M34">
         <v>25</v>
       </c>
       <c r="O34">
@@ -4130,7 +4130,7 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="138"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="115" t="s">
         <v>83</v>
       </c>
@@ -4176,7 +4176,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="138"/>
+      <c r="A36" s="163"/>
       <c r="B36" s="115" t="s">
         <v>83</v>
       </c>
@@ -4222,7 +4222,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="138"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="115" t="s">
         <v>83</v>
       </c>
@@ -4266,7 +4266,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="138"/>
+      <c r="A38" s="163"/>
       <c r="B38" s="115" t="s">
         <v>83</v>
       </c>
@@ -4310,7 +4310,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="138"/>
+      <c r="A39" s="163"/>
       <c r="B39" s="115" t="s">
         <v>83</v>
       </c>
@@ -4354,7 +4354,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="138"/>
+      <c r="A40" s="163"/>
       <c r="B40" s="115" t="s">
         <v>83</v>
       </c>
@@ -4398,7 +4398,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="138"/>
+      <c r="A41" s="163"/>
       <c r="B41" s="115" t="s">
         <v>83</v>
       </c>
@@ -4442,7 +4442,7 @@
       </c>
     </row>
     <row r="42" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="138"/>
+      <c r="A42" s="163"/>
       <c r="B42" s="115" t="s">
         <v>83</v>
       </c>
@@ -4486,7 +4486,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="138"/>
+      <c r="A43" s="163"/>
       <c r="B43" s="116" t="s">
         <v>83</v>
       </c>
@@ -4530,7 +4530,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="138"/>
+      <c r="A44" s="163"/>
       <c r="B44" s="117" t="s">
         <v>83</v>
       </c>
@@ -4574,7 +4574,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="138"/>
+      <c r="A45" s="163"/>
       <c r="B45" s="118" t="s">
         <v>83</v>
       </c>
@@ -4606,7 +4606,7 @@
         <f t="shared" ref="K45" si="18">J45*1.2</f>
         <v>14.990400000000001</v>
       </c>
-      <c r="N45">
+      <c r="M45">
         <v>1</v>
       </c>
       <c r="O45">
@@ -4615,7 +4615,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="138"/>
+      <c r="A46" s="163"/>
       <c r="B46" s="119" t="s">
         <v>183</v>
       </c>
@@ -4656,7 +4656,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="138"/>
+      <c r="A47" s="163"/>
       <c r="B47" s="120" t="s">
         <v>183</v>
       </c>
@@ -4700,7 +4700,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="138"/>
+      <c r="A48" s="163"/>
       <c r="B48" s="121" t="s">
         <v>183</v>
       </c>
@@ -4743,7 +4743,7 @@
       </c>
     </row>
     <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="138"/>
+      <c r="A49" s="163"/>
       <c r="B49" s="121" t="s">
         <v>183</v>
       </c>
@@ -4786,7 +4786,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="138"/>
+      <c r="A50" s="163"/>
       <c r="B50" s="121" t="s">
         <v>183</v>
       </c>
@@ -4832,7 +4832,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="138"/>
+      <c r="A51" s="163"/>
       <c r="B51" s="122" t="s">
         <v>183</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="P51" s="134"/>
     </row>
     <row r="52" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="138"/>
+      <c r="A52" s="163"/>
       <c r="B52" s="123" t="s">
         <v>24</v>
       </c>
@@ -4919,7 +4919,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="138"/>
+      <c r="A53" s="163"/>
       <c r="B53" s="124" t="s">
         <v>24</v>
       </c>
@@ -4962,7 +4962,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="138"/>
+      <c r="A54" s="163"/>
       <c r="B54" s="124" t="s">
         <v>24</v>
       </c>
@@ -5002,7 +5002,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="138"/>
+      <c r="A55" s="163"/>
       <c r="B55" s="124" t="s">
         <v>24</v>
       </c>
@@ -5043,7 +5043,7 @@
       </c>
     </row>
     <row r="56" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="138"/>
+      <c r="A56" s="163"/>
       <c r="B56" s="124" t="s">
         <v>24</v>
       </c>
@@ -5087,7 +5087,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="138"/>
+      <c r="A57" s="163"/>
       <c r="B57" s="124" t="s">
         <v>24</v>
       </c>
@@ -5131,7 +5131,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="138"/>
+      <c r="A58" s="163"/>
       <c r="B58" s="124" t="s">
         <v>24</v>
       </c>
@@ -5175,7 +5175,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="138"/>
+      <c r="A59" s="163"/>
       <c r="B59" s="124" t="s">
         <v>24</v>
       </c>
@@ -5216,7 +5216,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="138"/>
+      <c r="A60" s="163"/>
       <c r="B60" s="124" t="s">
         <v>24</v>
       </c>
@@ -5260,7 +5260,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="138"/>
+      <c r="A61" s="163"/>
       <c r="B61" s="124" t="s">
         <v>24</v>
       </c>
@@ -5298,7 +5298,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="138"/>
+      <c r="A62" s="163"/>
       <c r="B62" s="125" t="s">
         <v>24</v>
       </c>
@@ -5333,16 +5333,16 @@
       <c r="L62" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="N62">
+      <c r="M62">
         <v>50</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="135">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="139"/>
+      <c r="A63" s="164"/>
       <c r="B63" s="130" t="s">
         <v>249</v>
       </c>
@@ -6501,7 +6501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -6572,7 +6572,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="136" t="s">
         <v>256</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6607,10 +6607,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="145">
+      <c r="A2" s="165">
         <v>1</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="137" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="8">
@@ -6622,10 +6622,10 @@
       <c r="E2" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="148">
+      <c r="F2" s="138">
         <v>3.17</v>
       </c>
-      <c r="G2" s="148">
+      <c r="G2" s="138">
         <f>1.2*F2</f>
         <v>3.8039999999999998</v>
       </c>
@@ -6633,54 +6633,54 @@
       <c r="I2" s="8">
         <v>1</v>
       </c>
-      <c r="J2" s="148">
+      <c r="J2" s="138">
         <f>I2*F2</f>
         <v>3.17</v>
       </c>
-      <c r="K2" s="149">
+      <c r="K2" s="139">
         <f>G2*I2</f>
         <v>3.8039999999999998</v>
       </c>
       <c r="L2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="146"/>
-      <c r="B3" s="152" t="s">
+      <c r="A3" s="166"/>
+      <c r="B3" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="153">
+      <c r="C3" s="143">
         <v>488203</v>
       </c>
-      <c r="D3" s="153" t="s">
+      <c r="D3" s="143" t="s">
         <v>119</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="154">
+      <c r="F3" s="144">
         <v>0.48</v>
       </c>
-      <c r="G3" s="154">
+      <c r="G3" s="144">
         <f>1.2*F3</f>
         <v>0.57599999999999996</v>
       </c>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153">
+      <c r="H3" s="143"/>
+      <c r="I3" s="143">
         <v>10</v>
       </c>
-      <c r="J3" s="154">
+      <c r="J3" s="144">
         <f>I3*F3</f>
         <v>4.8</v>
       </c>
-      <c r="K3" s="155">
+      <c r="K3" s="145">
         <f>G3*I3</f>
         <v>5.76</v>
       </c>
       <c r="L3" s="46"/>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="170">
+      <c r="A4" s="167">
         <v>2</v>
       </c>
-      <c r="B4" s="157" t="s">
+      <c r="B4" s="147" t="s">
         <v>83</v>
       </c>
       <c r="C4" s="8">
@@ -6690,10 +6690,10 @@
         <v>257</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="148">
+      <c r="F4" s="138">
         <v>0.373</v>
       </c>
-      <c r="G4" s="148">
+      <c r="G4" s="138">
         <f t="shared" ref="G4:G11" si="0">1.2*F4</f>
         <v>0.4476</v>
       </c>
@@ -6701,25 +6701,25 @@
       <c r="I4" s="8">
         <v>10</v>
       </c>
-      <c r="J4" s="148">
+      <c r="J4" s="138">
         <f t="shared" ref="J4:J11" si="1">I4*F4</f>
         <v>3.73</v>
       </c>
-      <c r="K4" s="149">
+      <c r="K4" s="139">
         <f t="shared" ref="K4:K11" si="2">G4*I4</f>
         <v>4.476</v>
       </c>
       <c r="L4" s="46"/>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="171"/>
-      <c r="B5" s="168" t="s">
+      <c r="A5" s="168"/>
+      <c r="B5" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="164">
+      <c r="C5" s="154">
         <v>2576913</v>
       </c>
-      <c r="D5" s="165" t="s">
+      <c r="D5" s="155" t="s">
         <v>261</v>
       </c>
       <c r="E5" s="32"/>
@@ -6738,15 +6738,15 @@
         <f>I5*F5</f>
         <v>19.66</v>
       </c>
-      <c r="K5" s="156">
+      <c r="K5" s="146">
         <f>G5*I5</f>
         <v>23.591999999999999</v>
       </c>
       <c r="L5" s="38"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="171"/>
-      <c r="B6" s="166" t="s">
+      <c r="A6" s="168"/>
+      <c r="B6" s="156" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="32">
@@ -6771,15 +6771,15 @@
         <f t="shared" si="1"/>
         <v>8.1199999999999992</v>
       </c>
-      <c r="K6" s="156">
+      <c r="K6" s="146">
         <f t="shared" si="2"/>
         <v>9.743999999999998</v>
       </c>
       <c r="L6" s="38"/>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="171"/>
-      <c r="B7" s="167" t="s">
+      <c r="A7" s="168"/>
+      <c r="B7" s="157" t="s">
         <v>183</v>
       </c>
       <c r="C7" s="69">
@@ -6804,15 +6804,15 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K7" s="156">
+      <c r="K7" s="146">
         <f t="shared" si="2"/>
         <v>10.8</v>
       </c>
       <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="171"/>
-      <c r="B8" s="158" t="s">
+      <c r="A8" s="168"/>
+      <c r="B8" s="148" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="32">
@@ -6837,15 +6837,15 @@
         <f t="shared" si="1"/>
         <v>47.199999999999996</v>
       </c>
-      <c r="K8" s="156">
+      <c r="K8" s="146">
         <f t="shared" si="2"/>
         <v>56.639999999999993</v>
       </c>
       <c r="L8" s="38"/>
     </row>
     <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="171"/>
-      <c r="B9" s="158" t="s">
+      <c r="A9" s="168"/>
+      <c r="B9" s="148" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="32">
@@ -6870,61 +6870,61 @@
         <f t="shared" si="1"/>
         <v>21.4</v>
       </c>
-      <c r="K9" s="156">
+      <c r="K9" s="146">
         <f t="shared" si="2"/>
         <v>25.679999999999996</v>
       </c>
       <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="171"/>
-      <c r="B10" s="160" t="s">
+      <c r="A10" s="168"/>
+      <c r="B10" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="163">
+      <c r="C10" s="153">
         <v>2822512</v>
       </c>
-      <c r="D10" s="153" t="s">
+      <c r="D10" s="143" t="s">
         <v>262</v>
       </c>
-      <c r="E10" s="153"/>
-      <c r="F10" s="154">
+      <c r="E10" s="143"/>
+      <c r="F10" s="144">
         <v>0.184</v>
       </c>
-      <c r="G10" s="154">
+      <c r="G10" s="144">
         <f t="shared" si="0"/>
         <v>0.2208</v>
       </c>
-      <c r="H10" s="161"/>
-      <c r="I10" s="153">
+      <c r="H10" s="151"/>
+      <c r="I10" s="143">
         <v>5</v>
       </c>
-      <c r="J10" s="154">
+      <c r="J10" s="144">
         <f t="shared" si="1"/>
         <v>0.91999999999999993</v>
       </c>
-      <c r="K10" s="155">
+      <c r="K10" s="145">
         <f t="shared" si="2"/>
         <v>1.1040000000000001</v>
       </c>
       <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="172"/>
-      <c r="B11" s="159" t="s">
+      <c r="A11" s="169"/>
+      <c r="B11" s="149" t="s">
         <v>158</v>
       </c>
       <c r="C11" s="81">
         <v>2667832</v>
       </c>
-      <c r="D11" s="169" t="s">
+      <c r="D11" s="159" t="s">
         <v>260</v>
       </c>
       <c r="E11" s="81"/>
-      <c r="F11" s="150">
+      <c r="F11" s="140">
         <v>19.670000000000002</v>
       </c>
-      <c r="G11" s="150">
+      <c r="G11" s="140">
         <f t="shared" si="0"/>
         <v>23.604000000000003</v>
       </c>
@@ -6932,11 +6932,11 @@
       <c r="I11" s="81">
         <v>1</v>
       </c>
-      <c r="J11" s="150">
+      <c r="J11" s="140">
         <f t="shared" si="1"/>
         <v>19.670000000000002</v>
       </c>
-      <c r="K11" s="151">
+      <c r="K11" s="141">
         <f t="shared" si="2"/>
         <v>23.604000000000003</v>
       </c>
@@ -6945,7 +6945,7 @@
     <row r="12" spans="1:12" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="67"/>
       <c r="C12" s="38"/>
-      <c r="D12" s="162"/>
+      <c r="D12" s="152"/>
       <c r="E12" s="46"/>
       <c r="F12" s="45"/>
       <c r="G12" s="45"/>
@@ -7568,14 +7568,14 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
-      <c r="E16" s="140" t="s">
+      <c r="E16" s="170" t="s">
         <v>206</v>
       </c>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="141">
+      <c r="F16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="171">
         <f>SUM(J2:J14)</f>
         <v>101.52000000000001</v>
       </c>
@@ -7583,12 +7583,12 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="141"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="171"/>
       <c r="K17" s="46"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -7834,13 +7834,13 @@
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="53"/>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
       <c r="J3">
         <f>J2</f>
         <v>305.3</v>
@@ -7893,12 +7893,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="173" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="173" t="s">
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="160" t="s">
         <v>157</v>
       </c>
     </row>
